--- a/Bettas.xlsx
+++ b/Bettas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.alistratenko\Documents\GitHub\diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30275C-ED04-433B-BB5D-C8F3E3472ADC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBBF3EA-8AF8-44FF-AACB-BECA309E2369}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" tabRatio="843" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,13 +327,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -942,21 +942,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -1020,40 +1020,40 @@
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>0.24213789347947764</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>8.0333759886997452E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>8.0175400012472955E-4</v>
       </c>
-      <c r="E4" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="E4" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J4" s="8">
         <v>124.72809400506897</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>2.5000031182062079</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <v>82.60025756431466</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>1.4864305687620978</v>
       </c>
     </row>
@@ -1061,40 +1061,40 @@
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>4.2000201887164303</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>0.52382009901412985</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>9.4563727283302379E-4</v>
       </c>
-      <c r="E5" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J5" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K5" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="E5" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="L5" s="8">
         <v>576.81770253511388</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <v>2.3377607573695465</v>
       </c>
     </row>
@@ -1102,40 +1102,40 @@
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>2.3058371098107573</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>6.706757026486114E-2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>2.6613422801805486E-4</v>
       </c>
-      <c r="E6" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J6" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="E6" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="L6" s="8">
         <v>23309.610513520187</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>0.37896438691128598</v>
       </c>
     </row>
@@ -1143,40 +1143,40 @@
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>0.36500063559247475</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>0.12340323749363817</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>4.3860816187948626E-2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>8.5687400000116713E-3</v>
       </c>
-      <c r="F7" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="F7" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J7" s="8">
         <v>23.340681991380286</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <v>11.000002567475592</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>95.182062559383624</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <v>1.5777536975159994</v>
       </c>
     </row>
@@ -1184,40 +1184,40 @@
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>1.0579396884923511</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>7.716161016953707E-2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>5.6610935905370169E-2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>1.3963822222938368E-3</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>79.571270792967496</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>1.2567360000007957E-2</v>
       </c>
-      <c r="H8" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="H8" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J8" s="8">
         <v>238.71381237890247</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="8">
         <v>3.3333412904793285</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <v>236.30188028407167</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <v>0.72848326391302276</v>
       </c>
     </row>
@@ -1225,40 +1225,40 @@
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>2.4545884237150752</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>3.7038628528288209E-2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>6.283695000015915E-3</v>
       </c>
-      <c r="E9" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="E9" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="L9" s="8">
         <v>318.28457664571027</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <v>7.0044420771062397</v>
       </c>
     </row>
@@ -1266,40 +1266,40 @@
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>1.9197275268959297</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>4.7980561341562547E-2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>1.6653235909112207E-4</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>169.95848084313002</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>5.8838000000169966E-3</v>
       </c>
-      <c r="G10" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="L10" s="10">
+      <c r="G10" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="L10" s="8">
         <v>11217.259735646583</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>15.778475464620655</v>
       </c>
     </row>
@@ -1307,40 +1307,40 @@
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>2.2642379141610038</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>0.21668551124743637</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>0.34616036883356588</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>1.5331511111763372E-3</v>
       </c>
-      <c r="F11" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="L11" s="10">
+      <c r="F11" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="L11" s="8">
         <v>9131.5796299101276</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="8">
         <v>1.5507251113879459</v>
       </c>
     </row>
@@ -1348,40 +1348,40 @@
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>0.70575718981839164</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>0.11152875815219734</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>1.6572682752655235E-4</v>
       </c>
-      <c r="E12" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I12" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J12" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K12" s="10">
+      <c r="E12" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K12" s="8">
         <v>290.11491741878962</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="8">
         <v>148.80043169224521</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="8">
         <v>0.72123897540231963</v>
       </c>
     </row>
@@ -1389,40 +1389,40 @@
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>0.58643858765583401</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>3.813099410729906E-2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>0.13954104312001928</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>0.16666769319419095</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>9.7416500000102654E-3</v>
       </c>
-      <c r="G13" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="G13" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I13" s="8">
         <v>102.65212120341134</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="8">
         <v>9.7416500000102654E-3</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="8">
         <v>205.30424240682268</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="8">
         <v>432.50088794266247</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="8">
         <v>1.1009519200961753</v>
       </c>
     </row>
@@ -1430,40 +1430,40 @@
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>0.82544012675228107</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>7.6544155272450801E-2</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>3.3333784693824128E-2</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>2.2155550000004513E-2</v>
       </c>
-      <c r="F14" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I14" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="L14" s="10">
+      <c r="F14" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="L14" s="8">
         <v>12547.651864048452</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="8">
         <v>0.71312652698645318</v>
       </c>
     </row>
@@ -1471,40 +1471,40 @@
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>1.5534830026091422</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>0.11901640599725757</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>8.9665493400447674E-2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>7.6923870761934771E-2</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>1.259715500000794E-2</v>
       </c>
-      <c r="G15" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I15" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="G15" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J15" s="8">
         <v>39.691533676876787</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="8">
         <v>6.0000023814929424</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <v>377.50089901536978</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="8">
         <v>0.83378485403078073</v>
       </c>
     </row>
@@ -1512,40 +1512,40 @@
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>2.512978660347335</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>0.19561882388487714</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>6.475593680010748E-2</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>1.292928888966234E-3</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>85.938192393266931</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>1.1636280000008593E-2</v>
       </c>
-      <c r="H16" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I16" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="H16" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J16" s="8">
         <v>343.75276957306772</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="8">
         <v>1.000003437539478</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="8">
         <v>186.25064024172778</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="8">
         <v>1.1517115436749232</v>
       </c>
     </row>
@@ -1553,40 +1553,40 @@
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>0.53125019252643746</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>9.3217749830606489E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>6.4521160065347166E-2</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>1.9878283333836398E-3</v>
       </c>
-      <c r="F17" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I17" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J17" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="L17" s="10">
+      <c r="F17" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="L17" s="8">
         <v>51144.848590288697</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="8">
         <v>0.94210501822948811</v>
       </c>
     </row>
@@ -1594,40 +1594,40 @@
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>1.4712893403783902</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>0.27033273784865214</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>8.2811569408752519E-2</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>4.0769598537722596</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>2.7192264187721264E-4</v>
       </c>
-      <c r="G18" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="G18" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J18" s="8">
         <v>346.94828111414807</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="8">
         <v>2.8822840000346951E-3</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="8">
         <v>9714.5518711961467</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="8">
         <v>0.84158517968915747</v>
       </c>
     </row>
@@ -1635,40 +1635,40 @@
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>0.38418085876154212</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>2.6491989084152619E-2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>0.18182335397336716</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>1.9334950000517203E-3</v>
       </c>
-      <c r="F19" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="F19" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I19" s="8">
         <v>86.200135161810593</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="8">
         <v>9.0000077580187732</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="8">
         <v>1.4444556505488404</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="8">
         <v>145.30932064647641</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="8">
         <v>0.58087055655755249</v>
       </c>
     </row>
@@ -1676,40 +1676,40 @@
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>0.61240822196764022</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>5.497601889273019E-2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>1.7242271213469877E-2</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>0.11212570000008919</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <v>17.837141562676319</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="8">
         <v>2.0000035674343191</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="8">
         <v>0.50000178372034121</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="8">
         <v>5.606290000017837E-2</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="8">
         <v>44.592853906690799</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="8">
         <v>11.400050836075062</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="8">
         <v>17.509662048349462</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="8">
         <v>0.21218267240478447</v>
       </c>
     </row>
@@ -1717,40 +1717,40 @@
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>1.3972369681809937</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>0.10001781536716065</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>0.21053006579181746</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>2.6667225000374995E-3</v>
       </c>
-      <c r="F21" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J21" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K21" s="10">
+      <c r="F21" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K21" s="8">
         <v>562.49033782231879</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="8">
         <v>15.500087186491905</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="8">
         <v>0.2498499624597908</v>
       </c>
     </row>
@@ -1758,40 +1758,40 @@
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>1.2140202039556129</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>0.59431569378021742</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>0.17931991941750836</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>1.0444969231726648E-3</v>
       </c>
-      <c r="F22" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I22" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J22" s="10">
+      <c r="F22" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J22" s="8">
         <v>10.000000100000001</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="8">
         <v>69.9644282470679</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="8">
         <v>3.6842363028618577</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="8">
         <v>0.30337182096690646</v>
       </c>
     </row>
@@ -1799,40 +1799,40 @@
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>0.2176559706608078</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>2.3810461542198725E-2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>1.0664450000009377E-2</v>
       </c>
-      <c r="E23" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I23" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J23" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="L23" s="10">
+      <c r="E23" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="L23" s="8">
         <v>44446.778709430597</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="8">
         <v>0.32026835573779017</v>
       </c>
     </row>
@@ -1840,40 +1840,40 @@
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>1.9312438977204434</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>0.24674571604889792</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>0.16585457180809585</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>0.12121520276701217</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>3.2452075000308149E-3</v>
       </c>
-      <c r="G24" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="G24" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J24" s="8">
         <v>231.11074364503241</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="8">
         <v>3.6666751407467664</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="8">
         <v>46.364029255226029</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="8">
         <v>0.7348184965190705</v>
       </c>
     </row>
@@ -1881,40 +1881,40 @@
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>1.3488172255821316</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>0.19865362672686945</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>0.19316910623170669</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <v>0.13333814047867415</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>2.0803216667147361E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <v>8.0116208548880099</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="8">
         <v>0.12481880000008012</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="8">
         <v>1.0000001000000101</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="8">
         <v>1.0000001000000101</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="8">
         <v>96.139450258656126</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="8">
         <v>11.083439888904467</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="8">
         <v>4.2205035867842708</v>
       </c>
     </row>
@@ -1922,40 +1922,40 @@
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>1.5956503360194105</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>0.11007321385620635</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>3.9431434807970465E-4</v>
       </c>
-      <c r="E26" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H26" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I26" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J26" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K26" s="10">
+      <c r="E26" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K26" s="8">
         <v>992.39167383393988</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="8">
         <v>12.555680157078781</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="8">
         <v>0.22171757079486809</v>
       </c>
     </row>
@@ -1963,40 +1963,40 @@
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>3.50901440245792</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>0.13894882357339125</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>5.265068568813102E-3</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>5.2356650000191006E-3</v>
       </c>
-      <c r="F27" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="H27" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="J27" s="10">
-        <v>1.0000000100000002</v>
-      </c>
-      <c r="K27" s="10">
+      <c r="F27" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1.0000000100000002</v>
+      </c>
+      <c r="K27" s="8">
         <v>1241.4874671841442</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="8">
         <v>66.616211647295046</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="8">
         <v>1.4736293040560997</v>
       </c>
     </row>
@@ -2004,40 +2004,40 @@
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>0.54522909667985031</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>6.8416975254633888E-2</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>9.0911198686050174E-2</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>0.50000105386626648</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>1.0437790000011592E-2</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <v>9.0909091909090911E-2</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="8">
         <v>110.00000010999997</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="8">
         <v>10.000001100000123</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="8">
         <v>0.6387061845252775</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="8">
         <v>9.5000066744769747</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="8">
         <v>137.36933792047051</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="8">
         <v>0.21042912768339189</v>
       </c>
     </row>
@@ -2046,21 +2046,21 @@
       <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
@@ -3270,7 +3270,7 @@
         <v>32</v>
       </c>
       <c r="B65" s="7">
-        <f t="shared" ref="B65:M66" si="1">ABS(B5-B35)</f>
+        <f t="shared" ref="B65:M65" si="1">ABS(B5-B35)</f>
         <v>5.7688197593996904E-5</v>
       </c>
       <c r="C65" s="7">
@@ -4557,8 +4557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2102F0-44DE-4AF3-BD8C-3B2D7296212E}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:M28"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4822,21 +4822,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
